--- a/넣을 문서들/통합 문서1.xlsx
+++ b/넣을 문서들/통합 문서1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15ZD90P\Desktop\넣을 문서들\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\FileUpload\넣을 문서들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0410F6D-A946-4A73-9C0B-8D65D71C28B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9F431-5E45-48FC-B0B5-3AC813509BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7C2B7E4-2636-47CF-9C9D-9385A4D4AFEB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{F7C2B7E4-2636-47CF-9C9D-9385A4D4AFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>dsad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -95,6 +101,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232CC712-AF45-4FD4-A2A9-6AC4C9409FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,14 +472,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C201E8-C0BE-4BDA-BEDF-FC7FAA1951CE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C201E8-C0BE-4BDA-BEDF-FC7FAA1951CE}">
+  <dimension ref="F5:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="포장기 셸 개체" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="포장기 셸 개체" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>